--- a/UCSD_ECE111/project_4_4/summary.xlsx
+++ b/UCSD_ECE111/project_4_4/summary.xlsx
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,14 +1085,14 @@
         <v>21</v>
       </c>
       <c r="G2" s="6">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="H2" s="6">
         <v>1642</v>
       </c>
       <c r="I2" s="9">
         <f>G2+H2</f>
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="J2" s="6">
         <v>199.36</v>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="M2" s="10">
         <f>I2*L2/1000</f>
-        <v>32.502558186195827</v>
+        <v>32.525090288924559</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1129,14 +1129,14 @@
         <v>21</v>
       </c>
       <c r="G3" s="6">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="H3" s="6">
         <v>1642</v>
       </c>
       <c r="I3" s="9">
         <f>G3+H3</f>
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="J3" s="6">
         <v>199.36</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="M3" s="10">
         <f>I3*L3/1000</f>
-        <v>32.502558186195827</v>
+        <v>32.525090288924559</v>
       </c>
     </row>
   </sheetData>
